--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value437.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value437.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.536937876864162</v>
+        <v>1.62175190448761</v>
       </c>
       <c r="B1">
-        <v>1.89430554669125</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>1.906326344657613</v>
+        <v>2.647257566452026</v>
       </c>
       <c r="D1">
-        <v>2.271529115445146</v>
+        <v>1.395869731903076</v>
       </c>
       <c r="E1">
-        <v>1.399018780469547</v>
+        <v>0.9958027601242065</v>
       </c>
     </row>
   </sheetData>
